--- a/7팀_Term_Project_Schedule.xlsx
+++ b/7팀_Term_Project_Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\School\2023-2\NetGP\NetGP_TermProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E089979-9ADE-4B22-8988-1C1713E285FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132F9235-ECFB-401C-A058-B35BA9DFB01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="34">
   <si>
     <t>월</t>
   </si>
@@ -196,60 +196,6 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">Server
-Update 구현
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3F3F3F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Client
-RecvThread 구현</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FF3F3F3F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">Client 렌더링
-구현
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3F3F3F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Client
-RecvThread 구현</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FF3F3F3F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
       <t xml:space="preserve">Client
 RecvThread 구현
 </t>
@@ -295,6 +241,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>send_sc_game_end
+_packet 구현(추가)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">send_sc_game_end
 _packet </t>
@@ -303,7 +254,7 @@
       <rPr>
         <strike/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color rgb="FF0000FF"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -313,7 +264,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color rgb="FF0000FF"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -323,8 +274,62 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>send_sc_game_end
-_packet 구현(추가)</t>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">Server
+Update 구현
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Client
+RecvThread 구현</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">Client 렌더링
+구현
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Client
+RecvThread 구현</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>send_sc_logout
+_packet 구현</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -335,7 +340,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="d"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -476,6 +481,14 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -608,7 +621,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -730,9 +743,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -765,6 +775,30 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="18" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -790,30 +824,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1254,8 +1264,8 @@
   </sheetPr>
   <dimension ref="A1:AC1007"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -1270,10 +1280,10 @@
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="24"/>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="52"/>
+      <c r="E1" s="59"/>
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
       <c r="H1" s="26"/>
@@ -1300,7 +1310,7 @@
       <c r="AC1" s="2"/>
     </row>
     <row r="2" spans="1:29" ht="21.75" customHeight="1">
-      <c r="A2" s="54"/>
+      <c r="A2" s="61"/>
       <c r="B2" s="27" t="s">
         <v>6</v>
       </c>
@@ -1345,7 +1355,7 @@
       <c r="AC2" s="2"/>
     </row>
     <row r="3" spans="1:29" ht="19.5" customHeight="1">
-      <c r="A3" s="55"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
       <c r="D3" s="29">
@@ -1391,11 +1401,11 @@
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="51" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="31"/>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="52" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="31"/>
@@ -1429,7 +1439,7 @@
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="53" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="33"/>
@@ -1463,10 +1473,10 @@
       </c>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="54" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="32"/>
@@ -1545,13 +1555,13 @@
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="37"/>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="65" t="s">
+      <c r="E8" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="65" t="s">
+      <c r="F8" s="55" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="38"/>
@@ -1583,11 +1593,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="37"/>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="55" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="37"/>
-      <c r="E9" s="65" t="s">
+      <c r="E9" s="55" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="37"/>
@@ -1621,10 +1631,10 @@
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
-      <c r="D10" s="65" t="s">
+      <c r="D10" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="65" t="s">
+      <c r="E10" s="55" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="37"/>
@@ -1703,15 +1713,15 @@
       </c>
       <c r="B12" s="39"/>
       <c r="C12" s="33"/>
-      <c r="D12" s="40" t="s">
-        <v>27</v>
+      <c r="D12" s="57" t="s">
+        <v>31</v>
       </c>
       <c r="E12" s="39"/>
-      <c r="F12" s="40" t="s">
-        <v>28</v>
+      <c r="F12" s="57" t="s">
+        <v>32</v>
       </c>
       <c r="G12" s="32"/>
-      <c r="H12" s="41"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1739,8 +1749,8 @@
         <v>8</v>
       </c>
       <c r="B13" s="32"/>
-      <c r="C13" s="33" t="s">
-        <v>31</v>
+      <c r="C13" s="54" t="s">
+        <v>30</v>
       </c>
       <c r="D13" s="32"/>
       <c r="E13" s="33" t="s">
@@ -1775,12 +1785,12 @@
       <c r="A14" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="42"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="33"/>
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="67" t="s">
+      <c r="E14" s="57" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="32"/>
@@ -1810,25 +1820,25 @@
     </row>
     <row r="15" spans="1:29" ht="19.5" customHeight="1">
       <c r="A15" s="34"/>
-      <c r="B15" s="43">
+      <c r="B15" s="42">
         <v>19</v>
       </c>
-      <c r="C15" s="43">
+      <c r="C15" s="42">
         <v>20</v>
       </c>
-      <c r="D15" s="43">
+      <c r="D15" s="42">
         <v>21</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E15" s="42">
         <v>22</v>
       </c>
-      <c r="F15" s="43">
+      <c r="F15" s="42">
         <v>23</v>
       </c>
-      <c r="G15" s="43">
+      <c r="G15" s="42">
         <v>24</v>
       </c>
-      <c r="H15" s="43">
+      <c r="H15" s="42">
         <v>25</v>
       </c>
       <c r="I15" s="2"/>
@@ -1859,15 +1869,15 @@
       </c>
       <c r="B16" s="37"/>
       <c r="C16" s="38"/>
-      <c r="D16" s="44" t="s">
-        <v>29</v>
+      <c r="D16" s="43" t="s">
+        <v>27</v>
       </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="44" t="s">
-        <v>30</v>
+      <c r="E16" s="44"/>
+      <c r="F16" s="43" t="s">
+        <v>28</v>
       </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -1895,12 +1905,12 @@
         <v>8</v>
       </c>
       <c r="B17" s="37"/>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="46" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="37"/>
       <c r="E17" s="37" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
@@ -1932,16 +1942,18 @@
         <v>9</v>
       </c>
       <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="68" t="s">
+      <c r="C18" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="68" t="s">
+      <c r="E18" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -2006,21 +2018,21 @@
       <c r="A20" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="41" t="s">
+      <c r="B20" s="41"/>
+      <c r="C20" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="E20" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="41" t="s">
+      <c r="F20" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="41"/>
-      <c r="H20" s="49"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="48"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -2048,19 +2060,19 @@
         <v>8</v>
       </c>
       <c r="B21" s="33"/>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="E21" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="41" t="s">
+      <c r="F21" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="41"/>
+      <c r="G21" s="40"/>
       <c r="H21" s="31"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -2089,19 +2101,19 @@
         <v>9</v>
       </c>
       <c r="B22" s="33"/>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="41" t="s">
+      <c r="E22" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="41" t="s">
+      <c r="F22" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="41"/>
+      <c r="G22" s="40"/>
       <c r="H22" s="32"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -2222,10 +2234,10 @@
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="53" t="s">
+      <c r="D26" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="53"/>
+      <c r="E26" s="60"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -2252,7 +2264,7 @@
       <c r="AC26" s="2"/>
     </row>
     <row r="27" spans="1:29" ht="19.5" customHeight="1">
-      <c r="A27" s="56"/>
+      <c r="A27" s="63"/>
       <c r="B27" s="4" t="s">
         <v>6</v>
       </c>
@@ -2297,7 +2309,7 @@
       <c r="AC27" s="2"/>
     </row>
     <row r="28" spans="1:29" ht="19.5" customHeight="1">
-      <c r="A28" s="57"/>
+      <c r="A28" s="64"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -2485,7 +2497,7 @@
       <c r="E33" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="58" t="s">
+      <c r="F33" s="65" t="s">
         <v>13</v>
       </c>
       <c r="G33" s="17"/>
@@ -2526,9 +2538,9 @@
       <c r="E34" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="59"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="51"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="50"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -2565,7 +2577,7 @@
       <c r="E35" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="60"/>
+      <c r="F35" s="67"/>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
       <c r="I35" s="2"/>

--- a/7팀_Term_Project_Schedule.xlsx
+++ b/7팀_Term_Project_Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\School\2023-2\NetGP\NetGP_TermProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132F9235-ECFB-401C-A058-B35BA9DFB01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620B089A-7D94-4AD7-B368-947C5A18B06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="40">
   <si>
     <t>월</t>
   </si>
@@ -89,40 +89,6 @@
   <si>
     <t>프로토콜 정의</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Sans"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>최종</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Sans"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Sans"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>검수일</t>
-    </r>
   </si>
   <si>
     <t>임성규</t>
@@ -184,60 +150,6 @@
   <si>
     <t>send_sc_map_data
 _packet 구현</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FF3F3F3F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">Client
-RecvThread 구현
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3F3F3F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Server
-Update 구현</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FF3F3F3F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">Client
-RecvThread 구현
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3F3F3F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Client 렌더링
-구현</t>
-    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -332,6 +244,121 @@
 _packet 구현</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">Client
+RecvThread 구현
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Server
+Update 구현</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료화면
+리소스 제작</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료화면 렌더링</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 디자인 수정 적용</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 렌더링
+분리</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>로비 화면
+리소스 렌더링</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">Client
+RecvThread 구현
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Client 렌더링
+구현</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 종료
+패킷 전송</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검수일</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -340,7 +367,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="d"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -398,14 +425,6 @@
       <color rgb="FF000000"/>
       <name val="Lucida Sans"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Sans"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -476,18 +495,46 @@
     <font>
       <strike/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
-      <strike/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial Unicode MS"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Lucida Sans"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -658,20 +705,11 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -679,40 +717,37 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -727,40 +762,34 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -772,34 +801,34 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="18" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="18" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -817,13 +846,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1264,8 +1311,8 @@
   </sheetPr>
   <dimension ref="A1:AC1007"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -1277,16 +1324,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="60" customHeight="1">
-      <c r="A1" s="22"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="59" t="s">
+      <c r="A1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1310,26 +1357,26 @@
       <c r="AC1" s="2"/>
     </row>
     <row r="2" spans="1:29" ht="21.75" customHeight="1">
-      <c r="A2" s="61"/>
-      <c r="B2" s="27" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="23" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="2"/>
@@ -1355,22 +1402,22 @@
       <c r="AC2" s="2"/>
     </row>
     <row r="3" spans="1:29" ht="19.5" customHeight="1">
-      <c r="A3" s="62"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29">
+      <c r="A3" s="56"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25">
         <v>31</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="25">
         <v>1</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="25">
         <v>2</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="25">
         <v>3</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="25">
         <v>4</v>
       </c>
       <c r="I3" s="2"/>
@@ -1396,20 +1443,20 @@
       <c r="AC3" s="2"/>
     </row>
     <row r="4" spans="1:29" ht="50.25" customHeight="1">
-      <c r="A4" s="30" t="s">
-        <v>14</v>
+      <c r="A4" s="26" t="s">
+        <v>13</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="51" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="52" t="s">
+      <c r="E4" s="27"/>
+      <c r="F4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -1433,18 +1480,18 @@
       <c r="AC4" s="2"/>
     </row>
     <row r="5" spans="1:29" ht="50.25" customHeight="1">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="53" t="s">
-        <v>24</v>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="47" t="s">
+        <v>23</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="33"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -1468,20 +1515,20 @@
       <c r="AC5" s="2"/>
     </row>
     <row r="6" spans="1:29" ht="50.25" customHeight="1">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="54" t="s">
-        <v>23</v>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="48" t="s">
+        <v>22</v>
       </c>
-      <c r="E6" s="54" t="s">
-        <v>16</v>
+      <c r="E6" s="48" t="s">
+        <v>15</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -1505,26 +1552,26 @@
       <c r="AC6" s="2"/>
     </row>
     <row r="7" spans="1:29" ht="19.5" customHeight="1">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35">
+      <c r="A7" s="30"/>
+      <c r="B7" s="31">
         <v>5</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="31">
         <v>6</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="31">
         <v>7</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="31">
         <v>8</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="31">
         <v>9</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="31">
         <v>10</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="31">
         <v>11</v>
       </c>
       <c r="I7" s="2"/>
@@ -1550,22 +1597,22 @@
       <c r="AC7" s="2"/>
     </row>
     <row r="8" spans="1:29" ht="50.25" customHeight="1">
-      <c r="A8" s="36" t="s">
-        <v>14</v>
+      <c r="A8" s="32" t="s">
+        <v>13</v>
       </c>
       <c r="B8" s="11"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="56" t="s">
+      <c r="C8" s="33"/>
+      <c r="D8" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="55" t="s">
-        <v>17</v>
+      <c r="E8" s="49" t="s">
+        <v>16</v>
       </c>
-      <c r="F8" s="55" t="s">
-        <v>17</v>
+      <c r="F8" s="49" t="s">
+        <v>16</v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1589,20 +1636,20 @@
       <c r="AC8" s="2"/>
     </row>
     <row r="9" spans="1:29" ht="50.25" customHeight="1">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="55" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -1626,20 +1673,20 @@
       <c r="AC9" s="2"/>
     </row>
     <row r="10" spans="1:29" ht="50.25" customHeight="1">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="55" t="s">
-        <v>20</v>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="49" t="s">
+        <v>19</v>
       </c>
-      <c r="E10" s="55" t="s">
-        <v>20</v>
+      <c r="E10" s="49" t="s">
+        <v>19</v>
       </c>
-      <c r="F10" s="37"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -1663,26 +1710,26 @@
       <c r="AC10" s="2"/>
     </row>
     <row r="11" spans="1:29" ht="19.5" customHeight="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="29">
+      <c r="A11" s="19"/>
+      <c r="B11" s="25">
         <v>12</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="25">
         <v>13</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="25">
         <v>14</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="25">
         <v>15</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="25">
         <v>16</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="25">
         <v>17</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="25">
         <v>18</v>
       </c>
       <c r="I11" s="2"/>
@@ -1708,20 +1755,20 @@
       <c r="AC11" s="2"/>
     </row>
     <row r="12" spans="1:29" ht="60" customHeight="1">
-      <c r="A12" s="30" t="s">
-        <v>14</v>
+      <c r="A12" s="26" t="s">
+        <v>13</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="57" t="s">
-        <v>31</v>
+      <c r="B12" s="35"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="51" t="s">
+        <v>28</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="57" t="s">
-        <v>32</v>
+      <c r="E12" s="35"/>
+      <c r="F12" s="51" t="s">
+        <v>29</v>
       </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="40"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="36"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1745,20 +1792,20 @@
       <c r="AC12" s="2"/>
     </row>
     <row r="13" spans="1:29" ht="50.25" customHeight="1">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="54" t="s">
-        <v>30</v>
+      <c r="B13" s="28"/>
+      <c r="C13" s="48" t="s">
+        <v>27</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="33" t="s">
-        <v>18</v>
+      <c r="D13" s="28"/>
+      <c r="E13" s="48" t="s">
+        <v>17</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1782,20 +1829,20 @@
       <c r="AC13" s="2"/>
     </row>
     <row r="14" spans="1:29" ht="50.25" customHeight="1">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="57" t="s">
-        <v>22</v>
+      <c r="B14" s="37"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="51" t="s">
+        <v>21</v>
       </c>
-      <c r="E14" s="57" t="s">
-        <v>22</v>
+      <c r="E14" s="51" t="s">
+        <v>21</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1819,26 +1866,26 @@
       <c r="AC14" s="2"/>
     </row>
     <row r="15" spans="1:29" ht="19.5" customHeight="1">
-      <c r="A15" s="34"/>
-      <c r="B15" s="42">
+      <c r="A15" s="30"/>
+      <c r="B15" s="38">
         <v>19</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="38">
         <v>20</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="38">
         <v>21</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="38">
         <v>22</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="38">
         <v>23</v>
       </c>
-      <c r="G15" s="42">
+      <c r="G15" s="38">
         <v>24</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="38">
         <v>25</v>
       </c>
       <c r="I15" s="2"/>
@@ -1864,20 +1911,20 @@
       <c r="AC15" s="2"/>
     </row>
     <row r="16" spans="1:29" ht="60" customHeight="1">
-      <c r="A16" s="36" t="s">
-        <v>14</v>
+      <c r="A16" s="32" t="s">
+        <v>13</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="43" t="s">
-        <v>27</v>
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="52" t="s">
+        <v>31</v>
       </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="43" t="s">
-        <v>28</v>
+      <c r="E16" s="39"/>
+      <c r="F16" s="52" t="s">
+        <v>37</v>
       </c>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -1901,19 +1948,19 @@
       <c r="AC16" s="2"/>
     </row>
     <row r="17" spans="1:29" ht="50.25" customHeight="1">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="46" t="s">
-        <v>19</v>
+      <c r="B17" s="33"/>
+      <c r="C17" s="59" t="s">
+        <v>18</v>
       </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37" t="s">
-        <v>29</v>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49" t="s">
+        <v>26</v>
       </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
       <c r="H17" s="11"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1938,22 +1985,22 @@
       <c r="AC17" s="2"/>
     </row>
     <row r="18" spans="1:29" ht="50.25" customHeight="1">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37" t="s">
-        <v>33</v>
+      <c r="B18" s="33"/>
+      <c r="C18" s="49" t="s">
+        <v>30</v>
       </c>
-      <c r="D18" s="58" t="s">
-        <v>21</v>
+      <c r="D18" s="52" t="s">
+        <v>20</v>
       </c>
-      <c r="E18" s="58" t="s">
-        <v>21</v>
+      <c r="E18" s="52" t="s">
+        <v>20</v>
       </c>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1974,24 +2021,24 @@
       <c r="AB18" s="2"/>
     </row>
     <row r="19" spans="1:29" ht="19.5" customHeight="1">
-      <c r="A19" s="23"/>
-      <c r="B19" s="29">
+      <c r="A19" s="19"/>
+      <c r="B19" s="25">
         <v>26</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="25">
         <v>27</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="25">
         <v>28</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="25">
         <v>29</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="25">
         <v>30</v>
       </c>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -2015,24 +2062,19 @@
       <c r="AC19" s="2"/>
     </row>
     <row r="20" spans="1:29" ht="50.25" customHeight="1">
-      <c r="A20" s="30" t="s">
-        <v>14</v>
+      <c r="A20" s="26" t="s">
+        <v>13</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="40" t="s">
-        <v>15</v>
+      <c r="B20" s="37"/>
+      <c r="D20" s="51" t="s">
+        <v>35</v>
       </c>
-      <c r="D20" s="40" t="s">
-        <v>15</v>
+      <c r="E20" s="36"/>
+      <c r="F20" s="51" t="s">
+        <v>36</v>
       </c>
-      <c r="E20" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="40"/>
-      <c r="H20" s="48"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="42"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -2056,24 +2098,16 @@
       <c r="AC20" s="2"/>
     </row>
     <row r="21" spans="1:29" ht="50.25" customHeight="1">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="40"/>
-      <c r="H21" s="31"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="27"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -2097,24 +2131,20 @@
       <c r="AC21" s="2"/>
     </row>
     <row r="22" spans="1:29" ht="50.25" customHeight="1">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="40" t="s">
-        <v>15</v>
+      <c r="B22" s="29"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="51" t="s">
+        <v>32</v>
       </c>
-      <c r="D22" s="40" t="s">
-        <v>15</v>
+      <c r="E22" s="51" t="s">
+        <v>32</v>
       </c>
-      <c r="E22" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="40"/>
-      <c r="H22" s="32"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="28"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -2234,10 +2264,10 @@
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="60" t="s">
+      <c r="D26" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="60"/>
+      <c r="E26" s="54"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -2264,7 +2294,7 @@
       <c r="AC26" s="2"/>
     </row>
     <row r="27" spans="1:29" ht="19.5" customHeight="1">
-      <c r="A27" s="63"/>
+      <c r="A27" s="57"/>
       <c r="B27" s="4" t="s">
         <v>6</v>
       </c>
@@ -2309,7 +2339,7 @@
       <c r="AC27" s="2"/>
     </row>
     <row r="28" spans="1:29" ht="19.5" customHeight="1">
-      <c r="A28" s="64"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -2345,15 +2375,17 @@
     </row>
     <row r="29" spans="1:29" ht="50.25" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="62" t="s">
+        <v>34</v>
+      </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -2380,13 +2412,17 @@
       <c r="A30" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" s="62" t="s">
+        <v>14</v>
+      </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -2413,13 +2449,15 @@
       <c r="A31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="16"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="62" t="s">
+        <v>33</v>
+      </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -2445,19 +2483,19 @@
     <row r="32" spans="1:29" ht="19.5" customHeight="1">
       <c r="A32" s="10"/>
       <c r="B32" s="8">
+        <v>3</v>
+      </c>
+      <c r="C32" s="8">
         <v>4</v>
       </c>
-      <c r="C32" s="8">
+      <c r="D32" s="8">
         <v>5</v>
       </c>
-      <c r="D32" s="8">
+      <c r="E32" s="8">
         <v>6</v>
       </c>
-      <c r="E32" s="8">
+      <c r="F32" s="8">
         <v>7</v>
-      </c>
-      <c r="F32" s="8">
-        <v>8</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -2485,23 +2523,21 @@
     </row>
     <row r="33" spans="1:29" ht="50.25" customHeight="1">
       <c r="A33" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="21" t="s">
-        <v>15</v>
+      <c r="C33" s="63" t="s">
+        <v>14</v>
       </c>
-      <c r="D33" s="21" t="s">
-        <v>15</v>
+      <c r="D33" s="65" t="s">
+        <v>39</v>
       </c>
-      <c r="E33" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -2528,19 +2564,17 @@
       <c r="A34" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="21" t="s">
-        <v>15</v>
+      <c r="B34" s="63" t="s">
+        <v>14</v>
       </c>
-      <c r="D34" s="21" t="s">
-        <v>15</v>
+      <c r="C34" s="63" t="s">
+        <v>14</v>
       </c>
-      <c r="E34" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="66"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="50"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="44"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -2567,19 +2601,17 @@
       <c r="A35" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="21" t="s">
-        <v>15</v>
+      <c r="B35" s="63" t="s">
+        <v>14</v>
       </c>
-      <c r="D35" s="21" t="s">
-        <v>15</v>
+      <c r="C35" s="63" t="s">
+        <v>14</v>
       </c>
-      <c r="E35" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="67"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -32740,7 +32772,7 @@
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A27:A28"/>
-    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="D33:D35"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A8:A10">
@@ -32880,7 +32912,7 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>